--- a/services/guide_service/data/dustbins.xlsx
+++ b/services/guide_service/data/dustbins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11950" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,117 +29,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
   <si>
     <t>站点名称</t>
   </si>
   <si>
-    <t>经度</t>
-  </si>
-  <si>
-    <t>纬度</t>
-  </si>
-  <si>
     <t>22号楼南侧</t>
   </si>
   <si>
-    <t>116°19′57″E</t>
-  </si>
-  <si>
-    <t>39°56′54″N</t>
-  </si>
-  <si>
     <t>2号宿舍楼前</t>
   </si>
   <si>
-    <t>116°20′2″E</t>
-  </si>
-  <si>
-    <t>39°56′52″N</t>
-  </si>
-  <si>
     <t>南门小树林西南侧</t>
   </si>
   <si>
-    <t>116°20′5″E</t>
-  </si>
-  <si>
     <t>排球场前</t>
   </si>
   <si>
-    <t>116°20′1″E</t>
-  </si>
-  <si>
-    <t>39°56′53″N</t>
-  </si>
-  <si>
     <t>九教南</t>
   </si>
   <si>
-    <t>116°20′14″E</t>
-  </si>
-  <si>
     <t>12号宿舍楼前</t>
   </si>
   <si>
-    <t>116°20′0″E</t>
-  </si>
-  <si>
     <t>学四门口</t>
   </si>
   <si>
-    <t>116°20′17″E</t>
-  </si>
-  <si>
     <t>九教西侧</t>
   </si>
   <si>
-    <t>116°20′6″E</t>
-  </si>
-  <si>
     <t>九教东</t>
   </si>
   <si>
-    <t>116°20′12″E</t>
-  </si>
-  <si>
-    <t>39°56′55″N</t>
-  </si>
-  <si>
     <t>留园餐厅前</t>
   </si>
   <si>
-    <t>116°20′16″E</t>
-  </si>
-  <si>
     <t>排球场内</t>
   </si>
   <si>
-    <t>116°20′4″E</t>
-  </si>
-  <si>
     <t>梧桐大道东侧</t>
   </si>
   <si>
-    <t>116°20′11″E</t>
-  </si>
-  <si>
-    <t>39°56′56″N</t>
-  </si>
-  <si>
     <t>教工餐厅南侧</t>
   </si>
   <si>
     <t>学生活动服务中心前</t>
   </si>
   <si>
-    <t>116°19′56″E</t>
-  </si>
-  <si>
-    <t>39°56′57″N</t>
-  </si>
-  <si>
-    <t>1号宿舍楼前</t>
+    <t>红果园宾馆北门口</t>
   </si>
   <si>
     <t>积秀园</t>
@@ -148,18 +91,9 @@
     <t>西餐厅门口</t>
   </si>
   <si>
-    <t>116°19′53″E</t>
-  </si>
-  <si>
-    <t>39°56′58″N</t>
-  </si>
-  <si>
     <t>15号宿舍楼旁</t>
   </si>
   <si>
-    <t>116°19′59″E</t>
-  </si>
-  <si>
     <t>红果园餐厅北侧</t>
   </si>
   <si>
@@ -172,18 +106,12 @@
     <t>西操东</t>
   </si>
   <si>
-    <t>39°56′59″N</t>
-  </si>
-  <si>
     <t>芳华园西侧</t>
   </si>
   <si>
     <t>机械工程楼前</t>
   </si>
   <si>
-    <t>116°20′24″E</t>
-  </si>
-  <si>
     <t>二号教学楼东南侧</t>
   </si>
   <si>
@@ -193,18 +121,12 @@
     <t>22号楼楼前</t>
   </si>
   <si>
-    <t>39°57′0″N</t>
-  </si>
-  <si>
     <t>17号教学楼门口</t>
   </si>
   <si>
     <t>5号教学楼北侧</t>
   </si>
   <si>
-    <t>116°20′10″E</t>
-  </si>
-  <si>
     <t>图书馆前</t>
   </si>
   <si>
@@ -214,18 +136,9 @@
     <t>电气工程楼西门</t>
   </si>
   <si>
-    <t>116°20′18″E</t>
-  </si>
-  <si>
     <t>西门外卖柜旁</t>
   </si>
   <si>
-    <t>116°19′51″E</t>
-  </si>
-  <si>
-    <t>39°57′1″N</t>
-  </si>
-  <si>
     <t>逸夫楼西门口</t>
   </si>
   <si>
@@ -235,24 +148,12 @@
     <t>体育馆东</t>
   </si>
   <si>
-    <t>39°57′2″N</t>
-  </si>
-  <si>
     <t>研究生院门口</t>
   </si>
   <si>
-    <t>116°20′19″E</t>
-  </si>
-  <si>
     <t>西操内</t>
   </si>
   <si>
-    <t>116°19′52″E</t>
-  </si>
-  <si>
-    <t>39°57′3″N</t>
-  </si>
-  <si>
     <t>东操场</t>
   </si>
   <si>
@@ -262,22 +163,10 @@
     <t>18号宿舍楼前</t>
   </si>
   <si>
-    <t>39°57′4″N</t>
-  </si>
-  <si>
     <t>16号宿舍楼前</t>
   </si>
   <si>
-    <t>39°57′7″N</t>
-  </si>
-  <si>
     <t>科学会堂北</t>
-  </si>
-  <si>
-    <t>116°20′9″E</t>
-  </si>
-  <si>
-    <t>39°57′9″N</t>
   </si>
 </sst>
 </file>
@@ -898,13 +787,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1356,507 +1252,506 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90909090909091" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.90909090909091" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="15.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="14.5454545454545" customWidth="1"/>
+    <col min="1" max="2" width="22.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="18.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>116.338829</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39.94951</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>116.340091</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39.949162</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>116.340865</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39.949415</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>116.339867</v>
+      </c>
+      <c r="B5" s="1">
+        <v>39.949656</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>116.34253</v>
+      </c>
+      <c r="B6" s="3">
+        <v>39.949534</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>116.339704</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39.949757</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>116.343846</v>
+      </c>
+      <c r="B8" s="3">
+        <v>39.949754</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>116.341436</v>
+      </c>
+      <c r="B9" s="3">
+        <v>39.949641</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>116.343039</v>
+      </c>
+      <c r="B10" s="3">
+        <v>39.950212</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>116.34414</v>
+      </c>
+      <c r="B11" s="3">
+        <v>39.950016</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4">
+        <v>116.340169</v>
+      </c>
+      <c r="B12" s="4">
+        <v>39.949656</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>116.342694</v>
+      </c>
+      <c r="B13" s="3">
+        <v>39.950428</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>116.344367</v>
+      </c>
+      <c r="B14" s="3">
+        <v>39.950422</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>116.338738</v>
+      </c>
+      <c r="B15" s="4">
+        <v>39.950321</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>116.343545</v>
+      </c>
+      <c r="B16" s="3">
+        <v>39.950688</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
+        <v>116.340386</v>
+      </c>
+      <c r="B17" s="4">
+        <v>39.950419</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>116.337546</v>
+      </c>
+      <c r="B18" s="3">
+        <v>39.951113</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>116.339327</v>
+      </c>
+      <c r="B19" s="1">
+        <v>39.951085</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>116.344036</v>
+      </c>
+      <c r="B20" s="3">
+        <v>39.950953</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>116.339925</v>
+      </c>
+      <c r="B21" s="3">
+        <v>39.951079</v>
+      </c>
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>116.340389</v>
+      </c>
+      <c r="B22" s="3">
+        <v>39.950979</v>
+      </c>
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>116.338569</v>
+      </c>
+      <c r="B23" s="4">
+        <v>39.952282</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>116.34312</v>
+      </c>
+      <c r="B24" s="3">
+        <v>39.951148</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>116.3462</v>
+      </c>
+      <c r="B25" s="3">
+        <v>39.950759</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>116.341042</v>
+      </c>
+      <c r="B26" s="3">
+        <v>39.952259</v>
+      </c>
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>116.34131</v>
+      </c>
+      <c r="B27" s="3">
+        <v>39.952285</v>
+      </c>
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>116.338648</v>
+      </c>
+      <c r="B28" s="4">
+        <v>39.94997</v>
+      </c>
+      <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4">
+        <v>116.339318</v>
+      </c>
+      <c r="B29" s="4">
+        <v>39.95143</v>
+      </c>
+      <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <v>116.342521</v>
+      </c>
+      <c r="B30" s="3">
+        <v>39.951395</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>116.343282</v>
+      </c>
+      <c r="B31" s="5">
+        <v>39.951751</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>116.343872</v>
+      </c>
+      <c r="B32" s="3">
+        <v>39.951363</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>116.344847</v>
+      </c>
+      <c r="B33" s="3">
+        <v>39.951308</v>
+      </c>
+      <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>116.337092</v>
+      </c>
+      <c r="B34" s="3">
+        <v>39.951154</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="3">
+        <v>116.344372</v>
+      </c>
+      <c r="B35" s="3">
+        <v>39.951487</v>
+      </c>
+      <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>116.3465</v>
+      </c>
+      <c r="B36" s="3">
+        <v>39.95179</v>
+      </c>
+      <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3">
+        <v>116.337322</v>
+      </c>
+      <c r="B37" s="3">
+        <v>39.951707</v>
+      </c>
+      <c r="C37" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
+        <v>116.345289</v>
+      </c>
+      <c r="B38" s="3">
+        <v>39.951958</v>
+      </c>
+      <c r="C38" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4">
+        <v>116.338376</v>
+      </c>
+      <c r="B39" s="4">
+        <v>39.951648</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="3">
+        <v>116.344546</v>
+      </c>
+      <c r="B40" s="3">
+        <v>39.952318</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6">
+        <v>116.340902</v>
+      </c>
+      <c r="B41" s="2">
+        <v>39.952077</v>
+      </c>
+      <c r="C41" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3">
+        <v>116.343492</v>
+      </c>
+      <c r="B42" s="3">
+        <v>39.952502</v>
+      </c>
+      <c r="C42" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3">
+        <v>116.343676</v>
+      </c>
+      <c r="B43" s="3">
+        <v>39.953437</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4">
+        <v>116.341864</v>
+      </c>
+      <c r="B44" s="4">
+        <v>39.952125</v>
+      </c>
+      <c r="C44" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:L47">
-    <sortCondition ref="C3:C47"/>
+    <sortCondition ref="A3:A47"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
